--- a/Chandrashekaran-annotations/SYK_Q2_2021.xlsx
+++ b/Chandrashekaran-annotations/SYK_Q2_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vm056257\Downloads\Working\PEBU\ML\SubjECTive-QA\Chandrashekaran-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0313ABA-7DA3-4CCA-94B9-573C89E07222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F51E4D2-9D54-475D-8929-6470B26D37BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -722,8 +722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,6 +787,24 @@
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -800,6 +819,24 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -814,6 +851,24 @@
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -828,6 +883,24 @@
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -842,6 +915,24 @@
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -856,6 +947,24 @@
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -870,6 +979,24 @@
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -884,6 +1011,24 @@
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -898,6 +1043,24 @@
       <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -912,6 +1075,24 @@
       <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -926,6 +1107,24 @@
       <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -940,6 +1139,24 @@
       <c r="D13" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -954,6 +1171,24 @@
       <c r="D14" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -968,6 +1203,24 @@
       <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -982,8 +1235,26 @@
       <c r="D16" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -996,8 +1267,26 @@
       <c r="D17" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
@@ -1010,8 +1299,26 @@
       <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
@@ -1024,8 +1331,26 @@
       <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -1038,8 +1363,26 @@
       <c r="D20" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -1052,8 +1395,26 @@
       <c r="D21" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
@@ -1066,8 +1427,26 @@
       <c r="D22" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
@@ -1080,8 +1459,26 @@
       <c r="D23" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>67</v>
       </c>
@@ -1094,8 +1491,26 @@
       <c r="D24" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -1108,8 +1523,26 @@
       <c r="D25" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -1122,8 +1555,26 @@
       <c r="D26" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
@@ -1136,8 +1587,26 @@
       <c r="D27" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>77</v>
       </c>
@@ -1150,8 +1619,26 @@
       <c r="D28" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>77</v>
       </c>
@@ -1164,8 +1651,26 @@
       <c r="D29" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>82</v>
       </c>
@@ -1178,8 +1683,26 @@
       <c r="D30" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>82</v>
       </c>
@@ -1192,8 +1715,26 @@
       <c r="D31" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>87</v>
       </c>
@@ -1206,8 +1747,26 @@
       <c r="D32" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>87</v>
       </c>
@@ -1220,8 +1779,26 @@
       <c r="D33" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -1234,8 +1811,26 @@
       <c r="D34" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
@@ -1248,8 +1843,26 @@
       <c r="D35" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>97</v>
       </c>
@@ -1262,8 +1875,26 @@
       <c r="D36" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>100</v>
       </c>
@@ -1276,8 +1907,26 @@
       <c r="D37" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>100</v>
       </c>
@@ -1289,6 +1938,24 @@
       </c>
       <c r="D38" s="2" t="s">
         <v>104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2</v>
+      </c>
+      <c r="J38" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
